--- a/Documents/接口文档.xlsx
+++ b/Documents/接口文档.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shangxin\Desktop\师庆禄项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shangxin\PhpstormProjects\Bidding\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,9 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":"1","error":"0","message":"login successful.","user":{"nickname":"\u82ac","telephone":"2147483647","success_rate":"0","credit":"0","id":"1"}}</t>
-  </si>
-  <si>
     <t>{"id":"1","title":"task1","text":"text.text.","price":"50.00","publisher":"1","need_count":"10","already_count":"1","task_join":[{"user_id":"1","accept":"1"}]}</t>
   </si>
   <si>
@@ -192,10 +189,6 @@
     <t>task_id</t>
   </si>
   <si>
-    <t>/Login.php?username=shangxin2&amp;password=654321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username,password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,36 +237,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"1","error":"0","success_rate":"0.4000"}</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>/GetSuccessRate.php?user_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSuccessRate</t>
+  </si>
+  <si>
+    <t>查询用户成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"1","error":"0","message":"login successful.","user":{"nickname":"q","telephone":"11111111111","success_rate":"0","credit":"0","id":"1","session_id":"kt2j2kp3caakh8eq5okrlu2437"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Login.php?username=111&amp;password=222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/Register.php?username=admin&amp;password=123&amp;nickname=%E7%AE%A1%E7%90%86%E5%91%98&amp;telephone=12345678900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":"1","error":"0","success_rate":"0.4000"}</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>/GetSuccessRate.php?user_id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetSuccessRate</t>
-  </si>
-  <si>
-    <t>查询用户成功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +702,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,7 +734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -744,13 +745,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -764,13 +765,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -784,13 +785,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -804,13 +805,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
@@ -821,16 +822,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -844,71 +845,71 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +935,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1017,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">

--- a/Documents/接口文档.xlsx
+++ b/Documents/接口文档.xlsx
@@ -197,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/PublishTask.php?title=tasktesting&amp;text=content&amp;price=100&amp;need_count=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title,text,price,need_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id,task_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,6 +267,14 @@
   </si>
   <si>
     <t>/Register.php?username=admin&amp;password=123&amp;nickname=%E7%AE%A1%E7%90%86%E5%91%98&amp;telephone=12345678900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title,text,price,need_count,session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PublishTask.php?title=tasktesting&amp;text=content&amp;price=100&amp;need_count=3&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,10 +748,10 @@
         <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -768,13 +768,13 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -785,10 +785,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>42</v>
@@ -805,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -822,13 +822,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -845,10 +845,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>41</v>
@@ -865,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -882,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
@@ -894,22 +894,22 @@
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +935,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">

--- a/Documents/接口文档.xlsx
+++ b/Documents/接口文档.xlsx
@@ -197,6 +197,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/PublishTask.php?title=tasktesting&amp;text=content&amp;price=100&amp;need_count=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title,text,price,need_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user_id,task_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,14 +275,6 @@
   </si>
   <si>
     <t>/Register.php?username=admin&amp;password=123&amp;nickname=%E7%AE%A1%E7%90%86%E5%91%98&amp;telephone=12345678900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title,text,price,need_count,session_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PublishTask.php?title=tasktesting&amp;text=content&amp;price=100&amp;need_count=3&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,10 +748,10 @@
         <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -768,13 +768,13 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -785,10 +785,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>42</v>
@@ -805,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -822,13 +822,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -845,10 +845,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>41</v>
@@ -865,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -882,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
@@ -894,22 +894,22 @@
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +935,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">

--- a/Documents/接口文档.xlsx
+++ b/Documents/接口文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>数据库连接错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,17 +166,9 @@
     <t>[{"id":"1","title":"task1","text":"text.text.","price":"50.00","publisher":"1","need_count":"10","already_count":"1"},{"id":"2","title":"task2","text":"content.","price":"60.00","publisher":"1","need_count":"5","already_count":"0"},{"id":"3","title":"task3","text":"11111111.","price":"33.00","publisher":"1","need_count":"6","already_count":"0"}]</t>
   </si>
   <si>
-    <t>/DumpTask.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"success":"1","error":"0","message":"register successful."}</t>
   </si>
   <si>
-    <t>/JionTask.php?user_id=1&amp;task_id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"success":"1","error":"0","message":"join task successful."}</t>
   </si>
   <si>
@@ -186,9 +178,6 @@
     <t>{"success":"1","error":"0","message":"task publish successful."}</t>
   </si>
   <si>
-    <t>task_id</t>
-  </si>
-  <si>
     <t>username,password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,30 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id,task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/GetTask.php?task_id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/CheckTask.php?user_id=1&amp;task_id=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id,task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/GetUserInfo.php?user_id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,13 +201,6 @@
     <t>{"success":"1","error":"0","success_rate":"0.4000"}</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>/GetSuccessRate.php?user_id=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetSuccessRate</t>
   </si>
   <si>
@@ -274,7 +232,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user_id,task_id,session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id,session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id,session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id,session_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/PublishTask.php?title=tasktesting&amp;text=content&amp;price=100&amp;need_count=3&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/JionTask.php?user_id=1&amp;task_id=3&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/GetTask.php?task_id=1&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/CheckTask.php?user_id=1&amp;task_id=3&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/GetUserInfo.php?user_id=1&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DumpTask.php&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/GetSuccessRate.php?user_id=1&amp;session_id=poppfscdvqe0svofe783gjenu5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,13 +747,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -765,13 +767,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -785,13 +787,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -805,13 +807,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
@@ -822,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -845,13 +847,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -865,10 +867,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -882,11 +884,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>36</v>
@@ -894,22 +898,22 @@
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +939,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
